--- a/upload/duplicates_removed.xlsx
+++ b/upload/duplicates_removed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,11 +440,6 @@
           <t>Article</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Page count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,9 +447,6 @@
           <t>archdischild-2021-323716</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -462,9 +454,6 @@
           <t>edpract-2021-323751</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,9 +461,6 @@
           <t>medethics-2021-108108</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -482,9 +468,6 @@
           <t>medethics-2022-108145</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,9 +475,6 @@
           <t>medethics-2021-108089</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -502,9 +482,6 @@
           <t>medethics-2022-108128</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -512,9 +489,6 @@
           <t>medethics-2021-108099</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -522,9 +496,6 @@
           <t>postgradmedj-2021-141421</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -532,9 +503,6 @@
           <t>practneurol-2021-003335</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -542,9 +510,6 @@
           <t>practneurol-2021-003315</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -552,9 +517,6 @@
           <t>emermed-2021-212287</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -562,9 +524,6 @@
           <t>emermed-2021-212288</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -572,9 +531,6 @@
           <t>emermed-2021-211254</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -582,9 +538,6 @@
           <t>emermed-2021-212242</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -592,9 +545,6 @@
           <t>bcr-2021-248468</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -602,9 +552,6 @@
           <t>bmjresp-2021-001041corr1</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -612,9 +559,6 @@
           <t>bcr-2021-246039</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -622,9 +566,6 @@
           <t>bcr-2021-247227</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -632,9 +573,6 @@
           <t>bcr-2021-243942</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -642,9 +580,6 @@
           <t>bcr-2021-246955</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -652,9 +587,6 @@
           <t>bcr-2021-247617</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -662,9 +594,6 @@
           <t>tsaco-2022-000882</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -672,9 +601,6 @@
           <t>bcr-2021-243768</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -682,9 +608,6 @@
           <t>bmjgh-2021-006924</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -692,9 +615,6 @@
           <t>bmjopen-2021-053355</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -702,9 +622,6 @@
           <t>bcr-2021-246888</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -712,9 +629,6 @@
           <t>bmjsit-2021-000110</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -722,9 +636,6 @@
           <t>bmjopen-2021-053287</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -732,9 +643,6 @@
           <t>bmjopen-2020-048106</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -742,9 +650,6 @@
           <t>openhrt-2021-001814</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -752,9 +657,6 @@
           <t>openhrt-2021-001880</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -762,9 +664,6 @@
           <t>bmjopen-2021-057596</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -772,9 +671,6 @@
           <t>jitc-2021-003131</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -782,9 +678,6 @@
           <t>jitc-2021-003777</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -792,9 +685,9 @@
           <t>bmjopen-2021-058216</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -807,7 +700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,11 +714,6 @@
           <t>Article</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Page count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -833,38 +721,12 @@
           <t>medethics-2021-108100</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>practneurol-2022-003346</t>
         </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>medethics-2021-108100</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bjophthalmol-2017-310244</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
